--- a/doc/kcmbdcdjsgc.xlsx
+++ b/doc/kcmbdcdjsgc.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10323"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20337"/>
   <workbookPr showInkAnnotation="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dfshan/OneDrive - 西安交通大学/work/2021/工程教育认证/20210328-郑鼎方-各课程组提供资料/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\github\kcdcd\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6CCEE633-6C94-6E42-9A2F-1E2E3780E4B5}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59471BB7-B5B1-4FDC-B9CB-8FF7DFEC6AE8}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="504" windowWidth="28800" windowHeight="17496" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="2015" sheetId="4" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="179021"/>
 </workbook>
 </file>
 
@@ -32,7 +32,8 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Microsoft YaHei UI"/>
-            <charset val="1"/>
+            <family val="2"/>
+            <charset val="134"/>
           </rPr>
           <t>期末考试在总成绩中的占比</t>
         </r>
@@ -95,7 +96,8 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Microsoft YaHei UI"/>
-            <charset val="1"/>
+            <family val="2"/>
+            <charset val="134"/>
           </rPr>
           <t>例</t>
         </r>
@@ -105,7 +107,8 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Microsoft YaHei UI"/>
-            <charset val="1"/>
+            <family val="2"/>
+            <charset val="134"/>
           </rPr>
           <t xml:space="preserve"> </t>
         </r>
@@ -115,7 +118,8 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Microsoft YaHei UI"/>
-            <charset val="1"/>
+            <family val="2"/>
+            <charset val="134"/>
           </rPr>
           <t>[</t>
         </r>
@@ -125,7 +129,8 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Microsoft YaHei UI"/>
-            <charset val="1"/>
+            <family val="2"/>
+            <charset val="134"/>
           </rPr>
           <t>目标分值计算方法</t>
         </r>
@@ -135,7 +140,8 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Microsoft YaHei UI"/>
-            <charset val="1"/>
+            <family val="2"/>
+            <charset val="134"/>
           </rPr>
           <t>]</t>
         </r>
@@ -145,7 +151,8 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Microsoft YaHei UI"/>
-            <charset val="1"/>
+            <family val="2"/>
+            <charset val="134"/>
           </rPr>
           <t>：</t>
         </r>
@@ -155,7 +162,8 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Microsoft YaHei UI"/>
-            <charset val="1"/>
+            <family val="2"/>
+            <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
 </t>
@@ -165,7 +173,8 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Microsoft YaHei UI"/>
-            <charset val="1"/>
+            <family val="2"/>
+            <charset val="134"/>
           </rPr>
           <t>该值</t>
         </r>
@@ -174,7 +183,8 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Microsoft YaHei UI"/>
-            <charset val="1"/>
+            <family val="2"/>
+            <charset val="134"/>
           </rPr>
           <t>=</t>
         </r>
@@ -183,7 +193,8 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Microsoft YaHei UI"/>
-            <charset val="1"/>
+            <family val="2"/>
+            <charset val="134"/>
           </rPr>
           <t>第</t>
         </r>
@@ -192,7 +203,8 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Microsoft YaHei UI"/>
-            <charset val="1"/>
+            <family val="2"/>
+            <charset val="134"/>
           </rPr>
           <t>1-1</t>
         </r>
@@ -201,7 +213,8 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Microsoft YaHei UI"/>
-            <charset val="1"/>
+            <family val="2"/>
+            <charset val="134"/>
           </rPr>
           <t>题分数（</t>
         </r>
@@ -210,7 +223,8 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Microsoft YaHei UI"/>
-            <charset val="1"/>
+            <family val="2"/>
+            <charset val="134"/>
           </rPr>
           <t>12</t>
         </r>
@@ -219,7 +233,8 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Microsoft YaHei UI"/>
-            <charset val="1"/>
+            <family val="2"/>
+            <charset val="134"/>
           </rPr>
           <t>分）</t>
         </r>
@@ -228,7 +243,8 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Microsoft YaHei UI"/>
-            <charset val="1"/>
+            <family val="2"/>
+            <charset val="134"/>
           </rPr>
           <t>+</t>
         </r>
@@ -237,7 +253,8 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Microsoft YaHei UI"/>
-            <charset val="1"/>
+            <family val="2"/>
+            <charset val="134"/>
           </rPr>
           <t>第</t>
         </r>
@@ -246,7 +263,8 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Microsoft YaHei UI"/>
-            <charset val="1"/>
+            <family val="2"/>
+            <charset val="134"/>
           </rPr>
           <t>2</t>
         </r>
@@ -255,7 +273,8 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Microsoft YaHei UI"/>
-            <charset val="1"/>
+            <family val="2"/>
+            <charset val="134"/>
           </rPr>
           <t>大题分数（</t>
         </r>
@@ -264,7 +283,8 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Microsoft YaHei UI"/>
-            <charset val="1"/>
+            <family val="2"/>
+            <charset val="134"/>
           </rPr>
           <t>25</t>
         </r>
@@ -273,7 +293,8 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Microsoft YaHei UI"/>
-            <charset val="1"/>
+            <family val="2"/>
+            <charset val="134"/>
           </rPr>
           <t>分）</t>
         </r>
@@ -282,7 +303,8 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Microsoft YaHei UI"/>
-            <charset val="1"/>
+            <family val="2"/>
+            <charset val="134"/>
           </rPr>
           <t>=37</t>
         </r>
@@ -291,7 +313,8 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Microsoft YaHei UI"/>
-            <charset val="1"/>
+            <family val="2"/>
+            <charset val="134"/>
           </rPr>
           <t>分</t>
         </r>
@@ -304,7 +327,8 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Microsoft YaHei UI"/>
-            <charset val="1"/>
+            <family val="2"/>
+            <charset val="134"/>
           </rPr>
           <t>实验成绩没有小分，可以定一个比例拆分成绩</t>
         </r>
@@ -313,7 +337,8 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Microsoft YaHei UI"/>
-            <charset val="1"/>
+            <family val="2"/>
+            <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
 </t>
@@ -323,7 +348,8 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Microsoft YaHei UI"/>
-            <charset val="1"/>
+            <family val="2"/>
+            <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
 </t>
@@ -333,7 +359,8 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Microsoft YaHei UI"/>
-            <charset val="1"/>
+            <family val="2"/>
+            <charset val="134"/>
           </rPr>
           <t>在该例中，课程目标</t>
         </r>
@@ -342,7 +369,8 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Microsoft YaHei UI"/>
-            <charset val="1"/>
+            <family val="2"/>
+            <charset val="134"/>
           </rPr>
           <t>2</t>
         </r>
@@ -351,7 +379,8 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Microsoft YaHei UI"/>
-            <charset val="1"/>
+            <family val="2"/>
+            <charset val="134"/>
           </rPr>
           <t>占比</t>
         </r>
@@ -360,7 +389,8 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Microsoft YaHei UI"/>
-            <charset val="1"/>
+            <family val="2"/>
+            <charset val="134"/>
           </rPr>
           <t>40%</t>
         </r>
@@ -369,7 +399,8 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Microsoft YaHei UI"/>
-            <charset val="1"/>
+            <family val="2"/>
+            <charset val="134"/>
           </rPr>
           <t>，课程目标</t>
         </r>
@@ -378,7 +409,8 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Microsoft YaHei UI"/>
-            <charset val="1"/>
+            <family val="2"/>
+            <charset val="134"/>
           </rPr>
           <t>3</t>
         </r>
@@ -387,7 +419,8 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Microsoft YaHei UI"/>
-            <charset val="1"/>
+            <family val="2"/>
+            <charset val="134"/>
           </rPr>
           <t>占比</t>
         </r>
@@ -396,7 +429,8 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Microsoft YaHei UI"/>
-            <charset val="1"/>
+            <family val="2"/>
+            <charset val="134"/>
           </rPr>
           <t>60%</t>
         </r>
@@ -405,7 +439,8 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Microsoft YaHei UI"/>
-            <charset val="1"/>
+            <family val="2"/>
+            <charset val="134"/>
           </rPr>
           <t>，具体计算方法见</t>
         </r>
@@ -414,7 +449,8 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Microsoft YaHei UI"/>
-            <charset val="1"/>
+            <family val="2"/>
+            <charset val="134"/>
           </rPr>
           <t>excel</t>
         </r>
@@ -423,7 +459,8 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Microsoft YaHei UI"/>
-            <charset val="1"/>
+            <family val="2"/>
+            <charset val="134"/>
           </rPr>
           <t>公式</t>
         </r>
@@ -432,7 +469,8 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Microsoft YaHei UI"/>
-            <charset val="1"/>
+            <family val="2"/>
+            <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
 </t>
@@ -447,7 +485,8 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Microsoft YaHei UI"/>
-            <charset val="1"/>
+            <family val="2"/>
+            <charset val="134"/>
           </rPr>
           <t>例</t>
         </r>
@@ -457,7 +496,8 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Microsoft YaHei UI"/>
-            <charset val="1"/>
+            <family val="2"/>
+            <charset val="134"/>
           </rPr>
           <t xml:space="preserve"> </t>
         </r>
@@ -467,7 +507,8 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Microsoft YaHei UI"/>
-            <charset val="1"/>
+            <family val="2"/>
+            <charset val="134"/>
           </rPr>
           <t>[</t>
         </r>
@@ -477,7 +518,8 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Microsoft YaHei UI"/>
-            <charset val="1"/>
+            <family val="2"/>
+            <charset val="134"/>
           </rPr>
           <t>学生得分计算方法</t>
         </r>
@@ -487,7 +529,8 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Microsoft YaHei UI"/>
-            <charset val="1"/>
+            <family val="2"/>
+            <charset val="134"/>
           </rPr>
           <t>]</t>
         </r>
@@ -497,7 +540,8 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Microsoft YaHei UI"/>
-            <charset val="1"/>
+            <family val="2"/>
+            <charset val="134"/>
           </rPr>
           <t>：</t>
         </r>
@@ -507,7 +551,8 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Microsoft YaHei UI"/>
-            <charset val="1"/>
+            <family val="2"/>
+            <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
 </t>
@@ -517,7 +562,8 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Microsoft YaHei UI"/>
-            <charset val="1"/>
+            <family val="2"/>
+            <charset val="134"/>
           </rPr>
           <t>该学生第</t>
         </r>
@@ -526,7 +572,8 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Microsoft YaHei UI"/>
-            <charset val="1"/>
+            <family val="2"/>
+            <charset val="134"/>
           </rPr>
           <t>1-1</t>
         </r>
@@ -535,7 +582,8 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Microsoft YaHei UI"/>
-            <charset val="1"/>
+            <family val="2"/>
+            <charset val="134"/>
           </rPr>
           <t>题的得分（</t>
         </r>
@@ -544,7 +592,8 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Microsoft YaHei UI"/>
-            <charset val="1"/>
+            <family val="2"/>
+            <charset val="134"/>
           </rPr>
           <t>11</t>
         </r>
@@ -553,7 +602,8 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Microsoft YaHei UI"/>
-            <charset val="1"/>
+            <family val="2"/>
+            <charset val="134"/>
           </rPr>
           <t>分）</t>
         </r>
@@ -562,7 +612,8 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Microsoft YaHei UI"/>
-            <charset val="1"/>
+            <family val="2"/>
+            <charset val="134"/>
           </rPr>
           <t>+</t>
         </r>
@@ -571,7 +622,8 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Microsoft YaHei UI"/>
-            <charset val="1"/>
+            <family val="2"/>
+            <charset val="134"/>
           </rPr>
           <t>该学生第</t>
         </r>
@@ -580,7 +632,8 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Microsoft YaHei UI"/>
-            <charset val="1"/>
+            <family val="2"/>
+            <charset val="134"/>
           </rPr>
           <t>2</t>
         </r>
@@ -589,7 +642,8 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Microsoft YaHei UI"/>
-            <charset val="1"/>
+            <family val="2"/>
+            <charset val="134"/>
           </rPr>
           <t>大题的得分（</t>
         </r>
@@ -598,7 +652,8 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Microsoft YaHei UI"/>
-            <charset val="1"/>
+            <family val="2"/>
+            <charset val="134"/>
           </rPr>
           <t>20</t>
         </r>
@@ -607,7 +662,8 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Microsoft YaHei UI"/>
-            <charset val="1"/>
+            <family val="2"/>
+            <charset val="134"/>
           </rPr>
           <t>分</t>
         </r>
@@ -616,7 +672,8 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Microsoft YaHei UI"/>
-            <charset val="1"/>
+            <family val="2"/>
+            <charset val="134"/>
           </rPr>
           <t>)=31</t>
         </r>
@@ -625,7 +682,8 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Microsoft YaHei UI"/>
-            <charset val="1"/>
+            <family val="2"/>
+            <charset val="134"/>
           </rPr>
           <t>分</t>
         </r>
@@ -697,7 +755,8 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Microsoft YaHei UI"/>
-            <charset val="1"/>
+            <family val="2"/>
+            <charset val="134"/>
           </rPr>
           <t>总达成度</t>
         </r>
@@ -706,7 +765,8 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Microsoft YaHei UI"/>
-            <charset val="1"/>
+            <family val="2"/>
+            <charset val="134"/>
           </rPr>
           <t>=</t>
         </r>
@@ -715,7 +775,8 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Microsoft YaHei UI"/>
-            <charset val="1"/>
+            <family val="2"/>
+            <charset val="134"/>
           </rPr>
           <t>所有课程目标达成度的最小值</t>
         </r>
@@ -1172,7 +1233,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="35">
+  <fonts count="35" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1420,14 +1481,16 @@
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Microsoft YaHei UI"/>
-      <charset val="1"/>
+      <family val="2"/>
+      <charset val="134"/>
     </font>
     <font>
       <b/>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Microsoft YaHei UI"/>
-      <charset val="1"/>
+      <family val="2"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="10"/>
@@ -2041,9 +2104,429 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="24" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="25" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="25" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="27" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="31" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="32" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="21" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="21" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="31" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="21" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="6" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="6" fillId="2" borderId="6" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="6" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="21" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="26" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="26" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="24" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="24" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="26" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="26" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="24" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="24" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="12" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="12" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="12" fillId="2" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="12" fillId="2" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="28" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="30" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="17" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="22" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="20" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="23" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="29" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="6" fillId="2" borderId="24" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="6" fillId="2" borderId="26" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="6" fillId="2" borderId="25" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="6" fillId="2" borderId="33" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="6" fillId="2" borderId="34" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="6" fillId="2" borderId="35" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="38" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="19" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="39" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="40" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="37" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="2" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="2" borderId="20" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="2" borderId="23" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="22" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="20" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="23" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2053,451 +2536,31 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="20" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="22" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="23" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="22" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="20" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="23" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="24" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="25" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="25" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="27" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="31" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="32" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="21" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="28" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="30" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="21" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="31" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="21" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="6" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="6" fillId="2" borderId="6" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="6" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="6" fillId="2" borderId="24" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="6" fillId="2" borderId="26" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="6" fillId="2" borderId="25" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="6" fillId="2" borderId="33" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="6" fillId="2" borderId="34" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="6" fillId="2" borderId="35" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="21" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="17" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="26" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="26" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="24" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="24" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="26" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="26" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="24" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="24" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="12" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="12" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="12" fillId="2" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="12" fillId="2" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="2" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="2" borderId="20" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="2" borderId="23" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="29" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="9" fillId="0" borderId="36" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="9" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="19" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="38" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="37" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="39" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="40" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -4645,17 +4708,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AB88"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="110" workbookViewId="0">
-      <selection activeCell="AG21" sqref="AG21"/>
+    <sheetView tabSelected="1" topLeftCell="K13" zoomScale="110" workbookViewId="0">
+      <selection activeCell="V30" sqref="V30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="6" style="1" customWidth="1"/>
-    <col min="2" max="2" width="9.1640625" style="2" customWidth="1"/>
+    <col min="2" max="2" width="9.109375" style="2" customWidth="1"/>
     <col min="3" max="3" width="16" style="2" customWidth="1"/>
-    <col min="4" max="4" width="9.83203125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="9.5" style="1" customWidth="1"/>
+    <col min="4" max="4" width="9.77734375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="9.44140625" style="1" customWidth="1"/>
     <col min="6" max="6" width="9" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="10.33203125" style="1" customWidth="1"/>
     <col min="8" max="9" width="9" style="1" bestFit="1" customWidth="1"/>
@@ -4663,416 +4726,416 @@
     <col min="11" max="11" width="11.33203125" style="3" customWidth="1"/>
     <col min="12" max="12" width="9.6640625" style="3" customWidth="1"/>
     <col min="13" max="13" width="9" style="3"/>
-    <col min="14" max="14" width="15.1640625" style="3" customWidth="1"/>
-    <col min="15" max="15" width="20.1640625" style="3" customWidth="1"/>
+    <col min="14" max="14" width="15.109375" style="3" customWidth="1"/>
+    <col min="15" max="15" width="20.109375" style="3" customWidth="1"/>
     <col min="16" max="16" width="7.6640625" style="3" customWidth="1"/>
-    <col min="17" max="17" width="7.5" style="3" customWidth="1"/>
+    <col min="17" max="17" width="7.44140625" style="3" customWidth="1"/>
     <col min="18" max="18" width="7.6640625" style="3" customWidth="1"/>
     <col min="19" max="19" width="9" style="3"/>
-    <col min="20" max="20" width="12.83203125" style="3" customWidth="1"/>
-    <col min="21" max="21" width="13.1640625" style="3" bestFit="1" customWidth="1"/>
-    <col min="22" max="23" width="11.83203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="12.77734375" style="3" customWidth="1"/>
+    <col min="21" max="21" width="13.109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="11.77734375" style="3" bestFit="1" customWidth="1"/>
     <col min="24" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" ht="89" customHeight="1"/>
-    <row r="2" spans="1:28">
-      <c r="A2" s="17" t="s">
+    <row r="1" spans="1:28" ht="88.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A2" s="156" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="17"/>
-      <c r="C2" s="17"/>
-    </row>
-    <row r="3" spans="1:28" ht="15" thickBot="1">
-      <c r="A3" s="122"/>
-      <c r="B3" s="122"/>
-      <c r="C3" s="122"/>
-      <c r="D3" s="27"/>
-      <c r="E3" s="27"/>
-      <c r="F3" s="27"/>
-      <c r="G3" s="27"/>
-      <c r="H3" s="27"/>
-      <c r="I3" s="27"/>
-      <c r="J3" s="27"/>
-    </row>
-    <row r="4" spans="1:28" ht="15" customHeight="1">
-      <c r="A4" s="103" t="s">
+      <c r="B2" s="156"/>
+      <c r="C2" s="156"/>
+    </row>
+    <row r="3" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="61"/>
+      <c r="B3" s="61"/>
+      <c r="C3" s="61"/>
+      <c r="D3" s="17"/>
+      <c r="E3" s="17"/>
+      <c r="F3" s="17"/>
+      <c r="G3" s="17"/>
+      <c r="H3" s="17"/>
+      <c r="I3" s="17"/>
+      <c r="J3" s="17"/>
+    </row>
+    <row r="4" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="113" t="s">
         <v>60</v>
       </c>
-      <c r="B4" s="104"/>
-      <c r="C4" s="104"/>
-      <c r="D4" s="104"/>
-      <c r="E4" s="105"/>
-      <c r="F4" s="27"/>
-      <c r="G4" s="114" t="s">
+      <c r="B4" s="114"/>
+      <c r="C4" s="114"/>
+      <c r="D4" s="114"/>
+      <c r="E4" s="115"/>
+      <c r="F4" s="17"/>
+      <c r="G4" s="104" t="s">
         <v>61</v>
       </c>
-      <c r="H4" s="115"/>
-      <c r="I4" s="115"/>
-      <c r="J4" s="116"/>
-    </row>
-    <row r="5" spans="1:28" ht="17">
-      <c r="A5" s="106" t="s">
+      <c r="H4" s="105"/>
+      <c r="I4" s="105"/>
+      <c r="J4" s="106"/>
+    </row>
+    <row r="5" spans="1:28" ht="31.2" x14ac:dyDescent="0.25">
+      <c r="A5" s="107" t="s">
         <v>37</v>
       </c>
-      <c r="B5" s="101"/>
-      <c r="C5" s="100" t="s">
+      <c r="B5" s="108"/>
+      <c r="C5" s="51" t="s">
         <v>52</v>
       </c>
-      <c r="D5" s="100" t="s">
+      <c r="D5" s="51" t="s">
         <v>53</v>
       </c>
-      <c r="E5" s="123" t="s">
+      <c r="E5" s="62" t="s">
         <v>54</v>
       </c>
-      <c r="F5" s="27"/>
-      <c r="G5" s="121" t="s">
+      <c r="F5" s="17"/>
+      <c r="G5" s="60" t="s">
         <v>36</v>
       </c>
-      <c r="H5" s="112" t="s">
+      <c r="H5" s="54" t="s">
         <v>43</v>
       </c>
-      <c r="I5" s="112" t="s">
+      <c r="I5" s="54" t="s">
         <v>38</v>
       </c>
-      <c r="J5" s="117" t="s">
+      <c r="J5" s="56" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="6" spans="1:28" ht="17">
-      <c r="A6" s="107" t="s">
+    <row r="6" spans="1:28" ht="31.2" x14ac:dyDescent="0.25">
+      <c r="A6" s="109" t="s">
         <v>30</v>
       </c>
-      <c r="B6" s="102"/>
-      <c r="C6" s="110" t="s">
+      <c r="B6" s="110"/>
+      <c r="C6" s="52" t="s">
         <v>48</v>
       </c>
-      <c r="D6" s="110"/>
-      <c r="E6" s="124"/>
-      <c r="F6" s="27"/>
-      <c r="G6" s="118" t="s">
+      <c r="D6" s="52"/>
+      <c r="E6" s="63"/>
+      <c r="F6" s="17"/>
+      <c r="G6" s="57" t="s">
         <v>30</v>
       </c>
-      <c r="H6" s="113">
+      <c r="H6" s="55">
         <v>0.3</v>
       </c>
-      <c r="I6" s="113">
+      <c r="I6" s="55">
         <v>0.37</v>
       </c>
-      <c r="J6" s="126">
+      <c r="J6" s="65">
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:28" ht="17">
-      <c r="A7" s="107" t="s">
+    <row r="7" spans="1:28" ht="31.2" x14ac:dyDescent="0.25">
+      <c r="A7" s="109" t="s">
         <v>32</v>
       </c>
-      <c r="B7" s="102"/>
-      <c r="C7" s="110" t="s">
+      <c r="B7" s="110"/>
+      <c r="C7" s="52" t="s">
         <v>48</v>
       </c>
-      <c r="D7" s="110" t="s">
+      <c r="D7" s="52" t="s">
         <v>49</v>
       </c>
-      <c r="E7" s="124"/>
-      <c r="F7" s="27"/>
-      <c r="G7" s="118" t="s">
+      <c r="E7" s="63"/>
+      <c r="F7" s="17"/>
+      <c r="G7" s="57" t="s">
         <v>32</v>
       </c>
-      <c r="H7" s="113">
+      <c r="H7" s="55">
         <v>0.3</v>
       </c>
-      <c r="I7" s="113">
+      <c r="I7" s="55">
         <v>0.31</v>
       </c>
-      <c r="J7" s="126">
+      <c r="J7" s="65">
         <v>0.4</v>
       </c>
     </row>
-    <row r="8" spans="1:28" ht="18" thickBot="1">
-      <c r="A8" s="108" t="s">
+    <row r="8" spans="1:28" ht="31.8" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="111" t="s">
         <v>34</v>
       </c>
-      <c r="B8" s="109"/>
-      <c r="C8" s="111"/>
-      <c r="D8" s="111"/>
-      <c r="E8" s="125" t="s">
+      <c r="B8" s="112"/>
+      <c r="C8" s="53"/>
+      <c r="D8" s="53"/>
+      <c r="E8" s="64" t="s">
         <v>50</v>
       </c>
-      <c r="F8" s="27"/>
-      <c r="G8" s="119" t="s">
+      <c r="F8" s="17"/>
+      <c r="G8" s="58" t="s">
         <v>34</v>
       </c>
-      <c r="H8" s="120">
+      <c r="H8" s="59">
         <v>0.4</v>
       </c>
-      <c r="I8" s="120">
+      <c r="I8" s="59">
         <v>0.32</v>
       </c>
-      <c r="J8" s="127">
+      <c r="J8" s="66">
         <v>0.6</v>
       </c>
     </row>
-    <row r="9" spans="1:28">
+    <row r="9" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A9" s="12"/>
       <c r="B9" s="12"/>
       <c r="C9" s="12"/>
     </row>
-    <row r="10" spans="1:28">
+    <row r="10" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A10" s="12"/>
       <c r="B10" s="12"/>
       <c r="C10" s="12"/>
     </row>
-    <row r="11" spans="1:28" ht="15" thickBot="1">
+    <row r="11" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="12"/>
       <c r="B11" s="12"/>
       <c r="C11" s="12"/>
     </row>
-    <row r="12" spans="1:28" ht="14" customHeight="1">
-      <c r="A12" s="93" t="s">
+    <row r="12" spans="1:28" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="98" t="s">
         <v>59</v>
       </c>
-      <c r="B12" s="94"/>
-      <c r="C12" s="94"/>
-      <c r="D12" s="94"/>
-      <c r="E12" s="94"/>
-      <c r="F12" s="94"/>
-      <c r="G12" s="94"/>
-      <c r="H12" s="94"/>
-      <c r="I12" s="94"/>
-      <c r="J12" s="94"/>
-      <c r="K12" s="94"/>
-      <c r="L12" s="94"/>
-      <c r="M12" s="94"/>
-      <c r="N12" s="94"/>
-      <c r="O12" s="95"/>
+      <c r="B12" s="99"/>
+      <c r="C12" s="99"/>
+      <c r="D12" s="99"/>
+      <c r="E12" s="99"/>
+      <c r="F12" s="99"/>
+      <c r="G12" s="99"/>
+      <c r="H12" s="99"/>
+      <c r="I12" s="99"/>
+      <c r="J12" s="99"/>
+      <c r="K12" s="99"/>
+      <c r="L12" s="99"/>
+      <c r="M12" s="99"/>
+      <c r="N12" s="99"/>
+      <c r="O12" s="100"/>
       <c r="P12" s="13"/>
       <c r="Q12" s="13"/>
-      <c r="R12" s="150" t="s">
+      <c r="R12" s="88" t="s">
         <v>16</v>
       </c>
-      <c r="S12" s="150"/>
-      <c r="T12" s="150"/>
-      <c r="U12" s="150"/>
-      <c r="V12" s="150"/>
-      <c r="W12" s="150"/>
-      <c r="X12" s="150"/>
-      <c r="Y12" s="150"/>
-      <c r="Z12" s="150"/>
-      <c r="AA12" s="150"/>
-      <c r="AB12" s="151"/>
-    </row>
-    <row r="13" spans="1:28" ht="14" customHeight="1" thickBot="1">
-      <c r="A13" s="96"/>
-      <c r="B13" s="25"/>
-      <c r="C13" s="25"/>
-      <c r="D13" s="25"/>
-      <c r="E13" s="25"/>
-      <c r="F13" s="25"/>
-      <c r="G13" s="25"/>
-      <c r="H13" s="25"/>
-      <c r="I13" s="25"/>
-      <c r="J13" s="25"/>
-      <c r="K13" s="25"/>
-      <c r="L13" s="25"/>
-      <c r="M13" s="25"/>
-      <c r="N13" s="25"/>
-      <c r="O13" s="97"/>
+      <c r="S12" s="88"/>
+      <c r="T12" s="88"/>
+      <c r="U12" s="88"/>
+      <c r="V12" s="88"/>
+      <c r="W12" s="88"/>
+      <c r="X12" s="88"/>
+      <c r="Y12" s="88"/>
+      <c r="Z12" s="88"/>
+      <c r="AA12" s="88"/>
+      <c r="AB12" s="89"/>
+    </row>
+    <row r="13" spans="1:28" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="101"/>
+      <c r="B13" s="102"/>
+      <c r="C13" s="102"/>
+      <c r="D13" s="102"/>
+      <c r="E13" s="102"/>
+      <c r="F13" s="102"/>
+      <c r="G13" s="102"/>
+      <c r="H13" s="102"/>
+      <c r="I13" s="102"/>
+      <c r="J13" s="102"/>
+      <c r="K13" s="102"/>
+      <c r="L13" s="102"/>
+      <c r="M13" s="102"/>
+      <c r="N13" s="102"/>
+      <c r="O13" s="103"/>
       <c r="P13" s="13"/>
       <c r="Q13" s="13"/>
-      <c r="R13" s="150"/>
-      <c r="S13" s="150"/>
-      <c r="T13" s="150"/>
-      <c r="U13" s="150"/>
-      <c r="V13" s="150"/>
-      <c r="W13" s="150"/>
-      <c r="X13" s="150"/>
-      <c r="Y13" s="150"/>
-      <c r="Z13" s="150"/>
-      <c r="AA13" s="150"/>
-      <c r="AB13" s="151"/>
-    </row>
-    <row r="14" spans="1:28" ht="22" customHeight="1" thickBot="1">
-      <c r="A14" s="31" t="s">
+      <c r="R13" s="88"/>
+      <c r="S13" s="88"/>
+      <c r="T13" s="88"/>
+      <c r="U13" s="88"/>
+      <c r="V13" s="88"/>
+      <c r="W13" s="88"/>
+      <c r="X13" s="88"/>
+      <c r="Y13" s="88"/>
+      <c r="Z13" s="88"/>
+      <c r="AA13" s="88"/>
+      <c r="AB13" s="89"/>
+    </row>
+    <row r="14" spans="1:28" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="116" t="s">
         <v>62</v>
       </c>
-      <c r="B14" s="29"/>
-      <c r="C14" s="29"/>
-      <c r="D14" s="31" t="s">
+      <c r="B14" s="117"/>
+      <c r="C14" s="117"/>
+      <c r="D14" s="116" t="s">
         <v>17</v>
       </c>
-      <c r="E14" s="29"/>
-      <c r="F14" s="29"/>
-      <c r="G14" s="29"/>
-      <c r="H14" s="29"/>
-      <c r="I14" s="32"/>
-      <c r="J14" s="33" t="s">
+      <c r="E14" s="117"/>
+      <c r="F14" s="117"/>
+      <c r="G14" s="117"/>
+      <c r="H14" s="117"/>
+      <c r="I14" s="118"/>
+      <c r="J14" s="144" t="s">
         <v>18</v>
       </c>
-      <c r="K14" s="34"/>
-      <c r="L14" s="34"/>
-      <c r="M14" s="35"/>
-      <c r="N14" s="58" t="s">
+      <c r="K14" s="145"/>
+      <c r="L14" s="145"/>
+      <c r="M14" s="146"/>
+      <c r="N14" s="29" t="s">
         <v>26</v>
       </c>
-      <c r="O14" s="58" t="s">
+      <c r="O14" s="29" t="s">
         <v>27</v>
       </c>
-      <c r="P14" s="144"/>
-      <c r="Q14" s="144"/>
-      <c r="R14" s="155" t="s">
+      <c r="P14" s="76"/>
+      <c r="Q14" s="76"/>
+      <c r="R14" s="90" t="s">
         <v>37</v>
       </c>
-      <c r="S14" s="156"/>
-      <c r="T14" s="157"/>
-      <c r="U14" s="66" t="s">
+      <c r="S14" s="91"/>
+      <c r="T14" s="92"/>
+      <c r="U14" s="138" t="s">
         <v>31</v>
       </c>
-      <c r="V14" s="67"/>
-      <c r="W14" s="66" t="s">
+      <c r="V14" s="139"/>
+      <c r="W14" s="138" t="s">
         <v>33</v>
       </c>
-      <c r="X14" s="68"/>
-      <c r="Y14" s="67"/>
-      <c r="Z14" s="66" t="s">
+      <c r="X14" s="142"/>
+      <c r="Y14" s="139"/>
+      <c r="Z14" s="138" t="s">
         <v>35</v>
       </c>
-      <c r="AA14" s="68"/>
-      <c r="AB14" s="67"/>
-    </row>
-    <row r="15" spans="1:28" ht="27" customHeight="1" thickBot="1">
-      <c r="A15" s="29" t="s">
+      <c r="AA14" s="142"/>
+      <c r="AB14" s="139"/>
+    </row>
+    <row r="15" spans="1:28" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="117" t="s">
         <v>28</v>
       </c>
-      <c r="B15" s="29"/>
-      <c r="C15" s="29"/>
-      <c r="D15" s="33">
+      <c r="B15" s="117"/>
+      <c r="C15" s="117"/>
+      <c r="D15" s="144">
         <v>0.7</v>
       </c>
-      <c r="E15" s="34"/>
-      <c r="F15" s="34"/>
-      <c r="G15" s="34"/>
-      <c r="H15" s="34"/>
-      <c r="I15" s="35"/>
-      <c r="J15" s="46">
+      <c r="E15" s="145"/>
+      <c r="F15" s="145"/>
+      <c r="G15" s="145"/>
+      <c r="H15" s="145"/>
+      <c r="I15" s="146"/>
+      <c r="J15" s="153">
         <v>0.1</v>
       </c>
-      <c r="K15" s="47"/>
-      <c r="L15" s="47"/>
-      <c r="M15" s="48"/>
-      <c r="N15" s="63">
+      <c r="K15" s="154"/>
+      <c r="L15" s="154"/>
+      <c r="M15" s="155"/>
+      <c r="N15" s="32">
         <v>0.2</v>
       </c>
-      <c r="O15" s="61" t="s">
+      <c r="O15" s="30" t="s">
         <v>29</v>
       </c>
-      <c r="P15" s="145"/>
-      <c r="Q15" s="145"/>
-      <c r="R15" s="158" t="s">
+      <c r="P15" s="77"/>
+      <c r="Q15" s="77"/>
+      <c r="R15" s="93" t="s">
         <v>62</v>
       </c>
-      <c r="S15" s="152"/>
-      <c r="T15" s="159"/>
-      <c r="U15" s="69" t="s">
+      <c r="S15" s="94"/>
+      <c r="T15" s="95"/>
+      <c r="U15" s="35" t="s">
         <v>17</v>
       </c>
-      <c r="V15" s="70" t="s">
+      <c r="V15" s="36" t="s">
         <v>18</v>
       </c>
-      <c r="W15" s="69" t="s">
+      <c r="W15" s="35" t="s">
         <v>17</v>
       </c>
-      <c r="X15" s="71" t="s">
+      <c r="X15" s="37" t="s">
         <v>18</v>
       </c>
-      <c r="Y15" s="70" t="s">
+      <c r="Y15" s="36" t="s">
         <v>26</v>
       </c>
-      <c r="Z15" s="69" t="s">
+      <c r="Z15" s="35" t="s">
         <v>17</v>
       </c>
-      <c r="AA15" s="71" t="s">
+      <c r="AA15" s="37" t="s">
         <v>18</v>
       </c>
-      <c r="AB15" s="70" t="s">
+      <c r="AB15" s="36" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="16" spans="1:28">
-      <c r="A16" s="19" t="s">
+    <row r="16" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A16" s="159" t="s">
         <v>1</v>
       </c>
-      <c r="B16" s="20"/>
-      <c r="C16" s="40"/>
-      <c r="D16" s="43" t="s">
+      <c r="B16" s="160"/>
+      <c r="C16" s="161"/>
+      <c r="D16" s="157" t="s">
         <v>2</v>
       </c>
-      <c r="E16" s="18"/>
-      <c r="F16" s="18"/>
-      <c r="G16" s="140" t="s">
+      <c r="E16" s="158"/>
+      <c r="F16" s="158"/>
+      <c r="G16" s="119" t="s">
         <v>19</v>
       </c>
-      <c r="H16" s="140" t="s">
+      <c r="H16" s="119" t="s">
         <v>20</v>
       </c>
-      <c r="I16" s="142" t="s">
+      <c r="I16" s="168" t="s">
         <v>21</v>
       </c>
-      <c r="J16" s="50" t="s">
+      <c r="J16" s="147" t="s">
         <v>22</v>
       </c>
-      <c r="K16" s="51" t="s">
+      <c r="K16" s="149" t="s">
         <v>23</v>
       </c>
-      <c r="L16" s="51" t="s">
+      <c r="L16" s="149" t="s">
         <v>24</v>
       </c>
-      <c r="M16" s="53" t="s">
+      <c r="M16" s="151" t="s">
         <v>25</v>
       </c>
-      <c r="N16" s="59" t="s">
+      <c r="N16" s="96" t="s">
         <v>25</v>
       </c>
-      <c r="O16" s="59" t="s">
+      <c r="O16" s="96" t="s">
         <v>25</v>
       </c>
-      <c r="P16" s="146"/>
-      <c r="Q16" s="146"/>
-      <c r="R16" s="160" t="s">
+      <c r="P16" s="78"/>
+      <c r="Q16" s="78"/>
+      <c r="R16" s="82" t="s">
         <v>39</v>
       </c>
-      <c r="S16" s="153"/>
-      <c r="T16" s="161"/>
-      <c r="U16" s="69" t="s">
+      <c r="S16" s="83"/>
+      <c r="T16" s="84"/>
+      <c r="U16" s="35" t="s">
         <v>40</v>
       </c>
-      <c r="V16" s="70" t="s">
+      <c r="V16" s="36" t="s">
         <v>22</v>
       </c>
-      <c r="W16" s="69" t="s">
+      <c r="W16" s="35" t="s">
         <v>42</v>
       </c>
-      <c r="X16" s="71" t="s">
+      <c r="X16" s="37" t="s">
         <v>23</v>
       </c>
-      <c r="Y16" s="70" t="s">
+      <c r="Y16" s="36" t="s">
         <v>25</v>
       </c>
-      <c r="Z16" s="69">
+      <c r="Z16" s="35">
         <v>3</v>
       </c>
-      <c r="AA16" s="71" t="s">
+      <c r="AA16" s="37" t="s">
         <v>24</v>
       </c>
-      <c r="AB16" s="70" t="s">
+      <c r="AB16" s="36" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="17" spans="1:28" ht="13.5" customHeight="1">
-      <c r="A17" s="21"/>
-      <c r="B17" s="22"/>
-      <c r="C17" s="41"/>
-      <c r="D17" s="44" t="s">
+    <row r="17" spans="1:28" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="162"/>
+      <c r="B17" s="163"/>
+      <c r="C17" s="164"/>
+      <c r="D17" s="23" t="s">
         <v>3</v>
       </c>
       <c r="E17" s="4" t="s">
@@ -5081,36 +5144,36 @@
       <c r="F17" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="G17" s="141"/>
-      <c r="H17" s="141"/>
-      <c r="I17" s="143"/>
-      <c r="J17" s="52"/>
-      <c r="K17" s="28"/>
-      <c r="L17" s="28"/>
-      <c r="M17" s="54"/>
-      <c r="N17" s="60"/>
-      <c r="O17" s="60"/>
-      <c r="P17" s="146"/>
-      <c r="Q17" s="146"/>
-      <c r="R17" s="162"/>
-      <c r="S17" s="154"/>
-      <c r="T17" s="163"/>
-      <c r="U17" s="72"/>
-      <c r="V17" s="73"/>
-      <c r="W17" s="72"/>
-      <c r="X17" s="74"/>
-      <c r="Y17" s="73"/>
-      <c r="Z17" s="72"/>
-      <c r="AA17" s="74"/>
-      <c r="AB17" s="73"/>
-    </row>
-    <row r="18" spans="1:28">
-      <c r="A18" s="23" t="s">
+      <c r="G17" s="120"/>
+      <c r="H17" s="120"/>
+      <c r="I17" s="169"/>
+      <c r="J17" s="148"/>
+      <c r="K17" s="150"/>
+      <c r="L17" s="150"/>
+      <c r="M17" s="152"/>
+      <c r="N17" s="97"/>
+      <c r="O17" s="97"/>
+      <c r="P17" s="78"/>
+      <c r="Q17" s="78"/>
+      <c r="R17" s="85"/>
+      <c r="S17" s="86"/>
+      <c r="T17" s="87"/>
+      <c r="U17" s="140"/>
+      <c r="V17" s="141"/>
+      <c r="W17" s="140"/>
+      <c r="X17" s="143"/>
+      <c r="Y17" s="141"/>
+      <c r="Z17" s="140"/>
+      <c r="AA17" s="143"/>
+      <c r="AB17" s="141"/>
+    </row>
+    <row r="18" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A18" s="165" t="s">
         <v>6</v>
       </c>
-      <c r="B18" s="24"/>
-      <c r="C18" s="26"/>
-      <c r="D18" s="36">
+      <c r="B18" s="166"/>
+      <c r="C18" s="167"/>
+      <c r="D18" s="18">
         <v>12</v>
       </c>
       <c r="E18" s="14">
@@ -5129,7 +5192,7 @@
         <f>SUM(D18:H18)</f>
         <v>100</v>
       </c>
-      <c r="J18" s="36">
+      <c r="J18" s="18">
         <v>30</v>
       </c>
       <c r="K18" s="14">
@@ -5142,106 +5205,106 @@
         <f>SUM(J18:L18)</f>
         <v>100</v>
       </c>
-      <c r="N18" s="62">
+      <c r="N18" s="31">
         <v>100</v>
       </c>
-      <c r="O18" s="62">
+      <c r="O18" s="31">
         <f>0.7*I18+0.1*M18+0.2*N18</f>
         <v>100</v>
       </c>
-      <c r="P18" s="147"/>
-      <c r="Q18" s="147"/>
-      <c r="R18" s="160" t="s">
+      <c r="P18" s="79"/>
+      <c r="Q18" s="79"/>
+      <c r="R18" s="82" t="s">
         <v>41</v>
       </c>
-      <c r="S18" s="153"/>
-      <c r="T18" s="161"/>
-      <c r="U18" s="75">
+      <c r="S18" s="83"/>
+      <c r="T18" s="84"/>
+      <c r="U18" s="38">
         <f>D18+G18</f>
         <v>37</v>
       </c>
-      <c r="V18" s="76">
+      <c r="V18" s="39">
         <f>J18</f>
         <v>30</v>
       </c>
-      <c r="W18" s="75">
+      <c r="W18" s="38">
         <f>E18+F18</f>
         <v>31</v>
       </c>
-      <c r="X18" s="77">
+      <c r="X18" s="40">
         <f>K18</f>
         <v>30</v>
       </c>
-      <c r="Y18" s="76">
+      <c r="Y18" s="39">
         <f>N18*J7</f>
         <v>40</v>
       </c>
-      <c r="Z18" s="75">
+      <c r="Z18" s="38">
         <f>H18</f>
         <v>32</v>
       </c>
-      <c r="AA18" s="77">
+      <c r="AA18" s="40">
         <f>L18</f>
         <v>40</v>
       </c>
-      <c r="AB18" s="76">
+      <c r="AB18" s="39">
         <f>N18*J8</f>
         <v>60</v>
       </c>
     </row>
-    <row r="19" spans="1:28" ht="15" customHeight="1">
+    <row r="19" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="5" t="s">
         <v>7</v>
       </c>
       <c r="B19" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="C19" s="42" t="s">
+      <c r="C19" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="D19" s="36"/>
+      <c r="D19" s="18"/>
       <c r="E19" s="14"/>
       <c r="F19" s="14"/>
       <c r="G19" s="14"/>
       <c r="H19" s="14"/>
       <c r="I19" s="15"/>
-      <c r="J19" s="37"/>
+      <c r="J19" s="19"/>
       <c r="K19" s="7"/>
       <c r="L19" s="7"/>
       <c r="M19" s="10"/>
-      <c r="N19" s="56"/>
-      <c r="O19" s="56"/>
-      <c r="P19" s="148"/>
-      <c r="Q19" s="148"/>
+      <c r="N19" s="27"/>
+      <c r="O19" s="27"/>
+      <c r="P19" s="80"/>
+      <c r="Q19" s="80"/>
       <c r="R19" s="5" t="s">
         <v>7</v>
       </c>
       <c r="S19" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="T19" s="149" t="s">
+      <c r="T19" s="81" t="s">
         <v>9</v>
       </c>
-      <c r="U19" s="64"/>
-      <c r="V19" s="65"/>
-      <c r="W19" s="64"/>
-      <c r="X19" s="55"/>
-      <c r="Y19" s="65"/>
-      <c r="Z19" s="64"/>
-      <c r="AA19" s="55"/>
-      <c r="AB19" s="65"/>
-    </row>
-    <row r="20" spans="1:28" ht="17">
+      <c r="U19" s="33"/>
+      <c r="V19" s="34"/>
+      <c r="W19" s="33"/>
+      <c r="X19" s="26"/>
+      <c r="Y19" s="34"/>
+      <c r="Z19" s="33"/>
+      <c r="AA19" s="26"/>
+      <c r="AB19" s="34"/>
+    </row>
+    <row r="20" spans="1:28" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A20" s="5">
         <v>1</v>
       </c>
       <c r="B20" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C20" s="42" t="s">
+      <c r="C20" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="D20" s="37">
+      <c r="D20" s="19">
         <v>11</v>
       </c>
       <c r="E20" s="7">
@@ -5260,7 +5323,7 @@
         <f>SUM(D20:H20)</f>
         <v>90</v>
       </c>
-      <c r="J20" s="37">
+      <c r="J20" s="19">
         <v>20</v>
       </c>
       <c r="K20" s="7">
@@ -5273,68 +5336,68 @@
         <f>SUM(J20:L20)</f>
         <v>80</v>
       </c>
-      <c r="N20" s="56">
+      <c r="N20" s="27">
         <v>90</v>
       </c>
-      <c r="O20" s="56">
+      <c r="O20" s="27">
         <f t="shared" ref="O20:O22" si="0">0.7*I20+0.1*M20+0.2*N20</f>
         <v>89</v>
       </c>
-      <c r="P20" s="148"/>
-      <c r="Q20" s="148"/>
+      <c r="P20" s="80"/>
+      <c r="Q20" s="80"/>
       <c r="R20" s="5">
         <v>1</v>
       </c>
       <c r="S20" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="T20" s="149" t="s">
+      <c r="T20" s="81" t="s">
         <v>11</v>
       </c>
-      <c r="U20" s="64">
+      <c r="U20" s="33">
         <f>D20+G20</f>
         <v>31</v>
       </c>
-      <c r="V20" s="65">
+      <c r="V20" s="34">
         <f>J20</f>
         <v>20</v>
       </c>
-      <c r="W20" s="64">
+      <c r="W20" s="33">
         <f>E20+F20</f>
         <v>29</v>
       </c>
-      <c r="X20" s="55">
+      <c r="X20" s="26">
         <f>K20</f>
         <v>25</v>
       </c>
-      <c r="Y20" s="65">
+      <c r="Y20" s="34">
         <f>N20</f>
         <v>90</v>
       </c>
-      <c r="Z20" s="64">
+      <c r="Z20" s="33">
         <f>H20</f>
         <v>30</v>
       </c>
-      <c r="AA20" s="55">
+      <c r="AA20" s="26">
         <f>L20</f>
         <v>35</v>
       </c>
-      <c r="AB20" s="65">
+      <c r="AB20" s="34">
         <f>N20</f>
         <v>90</v>
       </c>
     </row>
-    <row r="21" spans="1:28" ht="17">
+    <row r="21" spans="1:28" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A21" s="5">
         <v>2</v>
       </c>
       <c r="B21" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="C21" s="42" t="s">
+      <c r="C21" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="D21" s="37">
+      <c r="D21" s="19">
         <v>5</v>
       </c>
       <c r="E21" s="7">
@@ -5353,7 +5416,7 @@
         <f>SUM(D21:H21)</f>
         <v>49</v>
       </c>
-      <c r="J21" s="37">
+      <c r="J21" s="19">
         <v>25</v>
       </c>
       <c r="K21" s="7">
@@ -5366,561 +5429,581 @@
         <f t="shared" ref="M21:M22" si="1">SUM(J21:L21)</f>
         <v>90</v>
       </c>
-      <c r="N21" s="56">
+      <c r="N21" s="27">
         <v>80</v>
       </c>
-      <c r="O21" s="56">
+      <c r="O21" s="27">
         <f t="shared" si="0"/>
         <v>59.3</v>
       </c>
-      <c r="P21" s="148"/>
-      <c r="Q21" s="148"/>
+      <c r="P21" s="80"/>
+      <c r="Q21" s="80"/>
       <c r="R21" s="5">
         <v>2</v>
       </c>
       <c r="S21" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="T21" s="149" t="s">
+      <c r="T21" s="81" t="s">
         <v>13</v>
       </c>
-      <c r="U21" s="64">
+      <c r="U21" s="33">
         <f t="shared" ref="U21:U22" si="2">D21+G21</f>
         <v>15</v>
       </c>
-      <c r="V21" s="65">
+      <c r="V21" s="34">
         <f t="shared" ref="V21:V22" si="3">J21</f>
         <v>25</v>
       </c>
-      <c r="W21" s="64">
+      <c r="W21" s="33">
         <f t="shared" ref="W21:W22" si="4">E21+F21</f>
         <v>18</v>
       </c>
-      <c r="X21" s="55">
+      <c r="X21" s="26">
         <f t="shared" ref="X21:X22" si="5">K21</f>
         <v>30</v>
       </c>
-      <c r="Y21" s="65">
+      <c r="Y21" s="34">
         <f t="shared" ref="Y21:Y22" si="6">N21</f>
         <v>80</v>
       </c>
-      <c r="Z21" s="64">
+      <c r="Z21" s="33">
         <f t="shared" ref="Z21:Z22" si="7">H21</f>
         <v>16</v>
       </c>
-      <c r="AA21" s="55">
+      <c r="AA21" s="26">
         <f t="shared" ref="AA21:AA22" si="8">L21</f>
         <v>35</v>
       </c>
-      <c r="AB21" s="65">
+      <c r="AB21" s="34">
         <f t="shared" ref="AB21:AB22" si="9">N21</f>
         <v>80</v>
       </c>
     </row>
-    <row r="22" spans="1:28" ht="18" thickBot="1">
+    <row r="22" spans="1:28" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="5">
         <v>3</v>
       </c>
       <c r="B22" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="C22" s="42" t="s">
+      <c r="C22" s="22" t="s">
         <v>15</v>
       </c>
-      <c r="D22" s="38">
+      <c r="D22" s="20">
         <v>10</v>
       </c>
-      <c r="E22" s="39">
+      <c r="E22" s="21">
         <v>2</v>
       </c>
-      <c r="F22" s="39">
+      <c r="F22" s="21">
         <v>6</v>
       </c>
-      <c r="G22" s="45">
+      <c r="G22" s="24">
         <v>20</v>
       </c>
-      <c r="H22" s="39">
+      <c r="H22" s="21">
         <v>32</v>
       </c>
-      <c r="I22" s="49">
+      <c r="I22" s="25">
         <f>SUM(D22:H22)</f>
         <v>70</v>
       </c>
-      <c r="J22" s="38">
+      <c r="J22" s="20">
         <v>26</v>
       </c>
-      <c r="K22" s="39">
+      <c r="K22" s="21">
         <v>28</v>
       </c>
-      <c r="L22" s="39">
+      <c r="L22" s="21">
         <v>32</v>
       </c>
-      <c r="M22" s="49">
+      <c r="M22" s="25">
         <f t="shared" si="1"/>
         <v>86</v>
       </c>
-      <c r="N22" s="57">
+      <c r="N22" s="28">
         <v>60</v>
       </c>
-      <c r="O22" s="57">
+      <c r="O22" s="28">
         <f t="shared" si="0"/>
         <v>69.599999999999994</v>
       </c>
-      <c r="P22" s="148"/>
-      <c r="Q22" s="148"/>
+      <c r="P22" s="80"/>
+      <c r="Q22" s="80"/>
       <c r="R22" s="5">
         <v>3</v>
       </c>
       <c r="S22" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="T22" s="149" t="s">
+      <c r="T22" s="81" t="s">
         <v>15</v>
       </c>
-      <c r="U22" s="64">
+      <c r="U22" s="33">
         <f t="shared" si="2"/>
         <v>30</v>
       </c>
-      <c r="V22" s="65">
+      <c r="V22" s="34">
         <f t="shared" si="3"/>
         <v>26</v>
       </c>
-      <c r="W22" s="64">
+      <c r="W22" s="33">
         <f t="shared" si="4"/>
         <v>8</v>
       </c>
-      <c r="X22" s="55">
+      <c r="X22" s="26">
         <f t="shared" si="5"/>
         <v>28</v>
       </c>
-      <c r="Y22" s="65">
+      <c r="Y22" s="34">
         <f t="shared" si="6"/>
         <v>60</v>
       </c>
-      <c r="Z22" s="64">
+      <c r="Z22" s="33">
         <f t="shared" si="7"/>
         <v>32</v>
       </c>
-      <c r="AA22" s="55">
+      <c r="AA22" s="26">
         <f t="shared" si="8"/>
         <v>32</v>
       </c>
-      <c r="AB22" s="65">
+      <c r="AB22" s="34">
         <f t="shared" si="9"/>
         <v>60</v>
       </c>
     </row>
-    <row r="23" spans="1:28">
+    <row r="23" spans="1:28" x14ac:dyDescent="0.25">
       <c r="J23" s="8"/>
-      <c r="R23" s="165" t="s">
+      <c r="R23" s="128" t="s">
         <v>45</v>
       </c>
-      <c r="S23" s="166"/>
-      <c r="T23" s="164"/>
-      <c r="U23" s="78">
+      <c r="S23" s="129"/>
+      <c r="T23" s="130"/>
+      <c r="U23" s="41">
         <f>AVERAGE(U20:U22)</f>
         <v>25.333333333333332</v>
       </c>
-      <c r="V23" s="79">
-        <f t="shared" ref="V23:AB23" si="10">AVERAGE(V20:V22)</f>
+      <c r="V23" s="42">
+        <f t="shared" ref="V23:AA23" si="10">AVERAGE(V20:V22)</f>
         <v>23.666666666666668</v>
       </c>
-      <c r="W23" s="78">
+      <c r="W23" s="41">
         <f t="shared" si="10"/>
         <v>18.333333333333332</v>
       </c>
-      <c r="X23" s="80">
+      <c r="X23" s="43">
         <f t="shared" si="10"/>
         <v>27.666666666666668</v>
       </c>
-      <c r="Y23" s="79">
+      <c r="Y23" s="42">
         <f>AVERAGE(Y20:Y22)*Y18/100</f>
         <v>30.666666666666671</v>
       </c>
-      <c r="Z23" s="78">
+      <c r="Z23" s="41">
         <f t="shared" si="10"/>
         <v>26</v>
       </c>
-      <c r="AA23" s="80">
+      <c r="AA23" s="43">
         <f t="shared" si="10"/>
         <v>34</v>
       </c>
-      <c r="AB23" s="79">
+      <c r="AB23" s="42">
         <f>AVERAGE(AB20:AB22)*AB18/100</f>
         <v>46</v>
       </c>
     </row>
-    <row r="24" spans="1:28" ht="16" thickBot="1">
-      <c r="A24" s="87"/>
-      <c r="B24" s="87"/>
-      <c r="C24" s="87"/>
-      <c r="D24" s="87"/>
+    <row r="24" spans="1:28" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="127"/>
+      <c r="B24" s="127"/>
+      <c r="C24" s="127"/>
+      <c r="D24" s="127"/>
       <c r="J24" s="9"/>
-      <c r="R24" s="165" t="s">
+      <c r="R24" s="128" t="s">
         <v>46</v>
       </c>
-      <c r="S24" s="166"/>
-      <c r="T24" s="164"/>
-      <c r="U24" s="81">
+      <c r="S24" s="129"/>
+      <c r="T24" s="130"/>
+      <c r="U24" s="121">
         <f>(U23+V23)/(U18+V18)</f>
         <v>0.73134328358208955</v>
       </c>
-      <c r="V24" s="82"/>
-      <c r="W24" s="81">
+      <c r="V24" s="122"/>
+      <c r="W24" s="121">
         <f>(W23+X23+Y23)/(W18+X18+Y18)</f>
         <v>0.75907590759075916</v>
       </c>
-      <c r="X24" s="83"/>
-      <c r="Y24" s="82"/>
-      <c r="Z24" s="81">
+      <c r="X24" s="123"/>
+      <c r="Y24" s="122"/>
+      <c r="Z24" s="121">
         <f>(Z23+AA23+AB23)/(Z18+AA18+AB18)</f>
         <v>0.80303030303030298</v>
       </c>
-      <c r="AA24" s="83"/>
-      <c r="AB24" s="82"/>
-    </row>
-    <row r="25" spans="1:28" ht="18" customHeight="1" thickBot="1">
-      <c r="A25" s="88"/>
-      <c r="B25" s="89"/>
-      <c r="C25" s="89"/>
-      <c r="D25" s="89"/>
+      <c r="AA24" s="123"/>
+      <c r="AB24" s="122"/>
+    </row>
+    <row r="25" spans="1:28" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="44"/>
+      <c r="B25" s="45"/>
+      <c r="C25" s="45"/>
+      <c r="D25" s="45"/>
       <c r="J25" s="8"/>
-      <c r="R25" s="168" t="s">
+      <c r="R25" s="131" t="s">
         <v>47</v>
       </c>
-      <c r="S25" s="169"/>
-      <c r="T25" s="167"/>
-      <c r="U25" s="84">
+      <c r="S25" s="132"/>
+      <c r="T25" s="133"/>
+      <c r="U25" s="124">
         <f>MIN(U24:AB24)</f>
         <v>0.73134328358208955</v>
       </c>
-      <c r="V25" s="85"/>
-      <c r="W25" s="85"/>
-      <c r="X25" s="85"/>
-      <c r="Y25" s="85"/>
-      <c r="Z25" s="85"/>
-      <c r="AA25" s="85"/>
-      <c r="AB25" s="86"/>
-    </row>
-    <row r="26" spans="1:28" ht="15">
-      <c r="A26" s="90"/>
-      <c r="B26" s="91"/>
-      <c r="C26" s="91"/>
-      <c r="D26" s="92"/>
+      <c r="V25" s="125"/>
+      <c r="W25" s="125"/>
+      <c r="X25" s="125"/>
+      <c r="Y25" s="125"/>
+      <c r="Z25" s="125"/>
+      <c r="AA25" s="125"/>
+      <c r="AB25" s="126"/>
+    </row>
+    <row r="26" spans="1:28" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A26" s="46"/>
+      <c r="B26" s="47"/>
+      <c r="C26" s="47"/>
+      <c r="D26" s="48"/>
       <c r="J26" s="8"/>
     </row>
-    <row r="27" spans="1:28" ht="16" thickBot="1">
-      <c r="A27" s="90"/>
-      <c r="B27" s="91"/>
-      <c r="C27" s="91"/>
-      <c r="D27" s="92"/>
+    <row r="27" spans="1:28" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="46"/>
+      <c r="B27" s="47"/>
+      <c r="C27" s="47"/>
+      <c r="D27" s="48"/>
       <c r="J27" s="8"/>
-      <c r="U27" s="30"/>
-      <c r="V27" s="30"/>
-    </row>
-    <row r="28" spans="1:28" ht="16" thickBot="1">
-      <c r="A28" s="90"/>
-      <c r="B28" s="91"/>
-      <c r="C28" s="91"/>
-      <c r="D28" s="92"/>
+      <c r="U27" s="134"/>
+      <c r="V27" s="134"/>
+    </row>
+    <row r="28" spans="1:28" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="46"/>
+      <c r="B28" s="47"/>
+      <c r="C28" s="47"/>
+      <c r="D28" s="48"/>
       <c r="J28" s="8"/>
-      <c r="U28" s="137" t="s">
+      <c r="U28" s="135" t="s">
         <v>55</v>
       </c>
-      <c r="V28" s="138"/>
-      <c r="W28" s="138"/>
-      <c r="X28" s="139"/>
-    </row>
-    <row r="29" spans="1:28" ht="33">
+      <c r="V28" s="136"/>
+      <c r="W28" s="136"/>
+      <c r="X28" s="137"/>
+    </row>
+    <row r="29" spans="1:28" ht="31.2" x14ac:dyDescent="0.25">
       <c r="J29" s="8"/>
-      <c r="U29" s="128"/>
-      <c r="V29" s="129" t="s">
+      <c r="U29" s="67"/>
+      <c r="V29" s="68" t="s">
         <v>52</v>
       </c>
-      <c r="W29" s="129" t="s">
+      <c r="W29" s="68" t="s">
         <v>53</v>
       </c>
-      <c r="X29" s="130" t="s">
+      <c r="X29" s="69" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="30" spans="1:28" ht="17">
+    <row r="30" spans="1:28" ht="16.2" x14ac:dyDescent="0.25">
       <c r="J30" s="8"/>
-      <c r="U30" s="131" t="s">
+      <c r="U30" s="70" t="s">
         <v>56</v>
       </c>
-      <c r="V30" s="132">
+      <c r="V30" s="71">
         <f>SUM(U23:V23)/SUM(U18:Y18)</f>
         <v>0.29166666666666669</v>
       </c>
-      <c r="W30" s="132"/>
-      <c r="X30" s="133"/>
-    </row>
-    <row r="31" spans="1:28" s="98" customFormat="1" ht="17" customHeight="1">
-      <c r="A31" s="88"/>
-      <c r="B31" s="88"/>
-      <c r="C31" s="88"/>
-      <c r="D31" s="88"/>
-      <c r="E31" s="88"/>
+      <c r="W30" s="71"/>
+      <c r="X30" s="72"/>
+    </row>
+    <row r="31" spans="1:28" s="49" customFormat="1" ht="16.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="44"/>
+      <c r="B31" s="44"/>
+      <c r="C31" s="44"/>
+      <c r="D31" s="44"/>
+      <c r="E31" s="44"/>
       <c r="F31" s="2"/>
       <c r="G31" s="2"/>
       <c r="H31" s="2"/>
       <c r="I31" s="2"/>
       <c r="J31" s="16"/>
-      <c r="U31" s="131" t="s">
+      <c r="U31" s="70" t="s">
         <v>57</v>
       </c>
-      <c r="V31" s="132">
+      <c r="V31" s="71">
         <f>SUM(W23:Y23)/SUM(U18:Y18)</f>
         <v>0.45634920634920639</v>
       </c>
-      <c r="W31" s="132">
+      <c r="W31" s="71">
         <f>W24</f>
         <v>0.75907590759075916</v>
       </c>
-      <c r="X31" s="133"/>
-    </row>
-    <row r="32" spans="1:28" s="98" customFormat="1" ht="17">
-      <c r="A32" s="88"/>
-      <c r="B32" s="90"/>
-      <c r="C32" s="90"/>
-      <c r="D32" s="90"/>
-      <c r="E32" s="99"/>
+      <c r="X31" s="72"/>
+    </row>
+    <row r="32" spans="1:28" s="49" customFormat="1" ht="16.2" x14ac:dyDescent="0.25">
+      <c r="A32" s="44"/>
+      <c r="B32" s="46"/>
+      <c r="C32" s="46"/>
+      <c r="D32" s="46"/>
+      <c r="E32" s="50"/>
       <c r="F32" s="2"/>
       <c r="G32" s="2"/>
       <c r="H32" s="2"/>
       <c r="I32" s="2"/>
       <c r="J32" s="16"/>
-      <c r="U32" s="131" t="s">
+      <c r="U32" s="70" t="s">
         <v>58</v>
       </c>
-      <c r="V32" s="132"/>
-      <c r="W32" s="132"/>
-      <c r="X32" s="133">
+      <c r="V32" s="71"/>
+      <c r="W32" s="71"/>
+      <c r="X32" s="72">
         <f>Z24</f>
         <v>0.80303030303030298</v>
       </c>
     </row>
-    <row r="33" spans="1:24" s="98" customFormat="1" ht="17" thickBot="1">
-      <c r="A33" s="90"/>
-      <c r="B33" s="91"/>
-      <c r="C33" s="91"/>
-      <c r="D33" s="92"/>
-      <c r="E33" s="99"/>
+    <row r="33" spans="1:24" s="49" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="46"/>
+      <c r="B33" s="47"/>
+      <c r="C33" s="47"/>
+      <c r="D33" s="48"/>
+      <c r="E33" s="50"/>
       <c r="F33" s="2"/>
       <c r="G33" s="2"/>
       <c r="H33" s="2"/>
       <c r="I33" s="2"/>
       <c r="J33" s="16"/>
-      <c r="T33" s="98" t="s">
+      <c r="T33" s="49" t="s">
         <v>63</v>
       </c>
-      <c r="U33" s="134" t="s">
+      <c r="U33" s="73" t="s">
         <v>51</v>
       </c>
-      <c r="V33" s="135">
+      <c r="V33" s="74">
         <f>SUM(V30:V32)</f>
         <v>0.74801587301587302</v>
       </c>
-      <c r="W33" s="135">
+      <c r="W33" s="74">
         <f t="shared" ref="W33:X33" si="11">SUM(W30:W32)</f>
         <v>0.75907590759075916</v>
       </c>
-      <c r="X33" s="136">
+      <c r="X33" s="75">
         <f t="shared" si="11"/>
         <v>0.80303030303030298</v>
       </c>
     </row>
-    <row r="34" spans="1:24" s="98" customFormat="1" ht="16">
-      <c r="A34" s="90"/>
-      <c r="B34" s="91"/>
-      <c r="C34" s="91"/>
-      <c r="D34" s="92"/>
-      <c r="E34" s="99"/>
+    <row r="34" spans="1:24" s="49" customFormat="1" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A34" s="46"/>
+      <c r="B34" s="47"/>
+      <c r="C34" s="47"/>
+      <c r="D34" s="48"/>
+      <c r="E34" s="50"/>
       <c r="F34" s="2"/>
       <c r="G34" s="2"/>
       <c r="H34" s="2"/>
       <c r="I34" s="2"/>
       <c r="J34" s="16"/>
     </row>
-    <row r="35" spans="1:24" s="98" customFormat="1" ht="16">
-      <c r="A35" s="90"/>
-      <c r="B35" s="91"/>
-      <c r="C35" s="91"/>
-      <c r="D35" s="92"/>
-      <c r="E35" s="99"/>
+    <row r="35" spans="1:24" s="49" customFormat="1" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A35" s="46"/>
+      <c r="B35" s="47"/>
+      <c r="C35" s="47"/>
+      <c r="D35" s="48"/>
+      <c r="E35" s="50"/>
       <c r="F35" s="2"/>
       <c r="G35" s="2"/>
       <c r="H35" s="2"/>
       <c r="I35" s="2"/>
       <c r="J35" s="16"/>
     </row>
-    <row r="36" spans="1:24">
+    <row r="36" spans="1:24" x14ac:dyDescent="0.25">
       <c r="J36" s="8"/>
     </row>
-    <row r="37" spans="1:24">
+    <row r="37" spans="1:24" x14ac:dyDescent="0.25">
       <c r="J37" s="8"/>
     </row>
-    <row r="38" spans="1:24">
+    <row r="38" spans="1:24" x14ac:dyDescent="0.25">
       <c r="J38" s="8"/>
     </row>
-    <row r="39" spans="1:24">
+    <row r="39" spans="1:24" x14ac:dyDescent="0.25">
       <c r="J39" s="8"/>
     </row>
-    <row r="40" spans="1:24">
+    <row r="40" spans="1:24" x14ac:dyDescent="0.25">
       <c r="J40" s="8"/>
     </row>
-    <row r="41" spans="1:24">
+    <row r="41" spans="1:24" x14ac:dyDescent="0.25">
       <c r="J41" s="8"/>
     </row>
-    <row r="42" spans="1:24">
+    <row r="42" spans="1:24" x14ac:dyDescent="0.25">
       <c r="J42" s="8"/>
     </row>
-    <row r="43" spans="1:24">
+    <row r="43" spans="1:24" x14ac:dyDescent="0.25">
       <c r="J43" s="8"/>
     </row>
-    <row r="44" spans="1:24">
+    <row r="44" spans="1:24" x14ac:dyDescent="0.25">
       <c r="J44" s="8"/>
     </row>
-    <row r="45" spans="1:24">
+    <row r="45" spans="1:24" x14ac:dyDescent="0.25">
       <c r="J45" s="8"/>
     </row>
-    <row r="46" spans="1:24">
+    <row r="46" spans="1:24" x14ac:dyDescent="0.25">
       <c r="J46" s="8"/>
     </row>
-    <row r="47" spans="1:24">
+    <row r="47" spans="1:24" x14ac:dyDescent="0.25">
       <c r="J47" s="8"/>
     </row>
-    <row r="48" spans="1:24">
+    <row r="48" spans="1:24" x14ac:dyDescent="0.25">
       <c r="J48" s="8"/>
     </row>
-    <row r="49" spans="10:10">
+    <row r="49" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J49" s="8"/>
     </row>
-    <row r="50" spans="10:10">
+    <row r="50" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J50" s="8"/>
     </row>
-    <row r="51" spans="10:10">
+    <row r="51" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J51" s="8"/>
     </row>
-    <row r="52" spans="10:10">
+    <row r="52" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J52" s="8"/>
     </row>
-    <row r="53" spans="10:10">
+    <row r="53" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J53" s="8"/>
     </row>
-    <row r="54" spans="10:10">
+    <row r="54" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J54" s="8"/>
     </row>
-    <row r="55" spans="10:10">
+    <row r="55" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J55" s="8"/>
     </row>
-    <row r="56" spans="10:10">
+    <row r="56" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J56" s="8"/>
     </row>
-    <row r="57" spans="10:10">
+    <row r="57" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J57" s="8"/>
     </row>
-    <row r="58" spans="10:10">
+    <row r="58" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J58" s="8"/>
     </row>
-    <row r="59" spans="10:10">
+    <row r="59" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J59" s="8"/>
     </row>
-    <row r="60" spans="10:10">
+    <row r="60" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J60" s="8"/>
     </row>
-    <row r="61" spans="10:10">
+    <row r="61" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J61" s="8"/>
     </row>
-    <row r="62" spans="10:10">
+    <row r="62" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J62" s="8"/>
     </row>
-    <row r="63" spans="10:10">
+    <row r="63" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J63" s="8"/>
     </row>
-    <row r="64" spans="10:10">
+    <row r="64" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J64" s="8"/>
     </row>
-    <row r="65" spans="10:10">
+    <row r="65" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J65" s="8"/>
     </row>
-    <row r="66" spans="10:10">
+    <row r="66" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J66" s="8"/>
     </row>
-    <row r="67" spans="10:10">
+    <row r="67" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J67" s="8"/>
     </row>
-    <row r="68" spans="10:10">
+    <row r="68" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J68" s="8"/>
     </row>
-    <row r="69" spans="10:10">
+    <row r="69" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J69" s="8"/>
     </row>
-    <row r="70" spans="10:10">
+    <row r="70" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J70" s="8"/>
     </row>
-    <row r="71" spans="10:10">
+    <row r="71" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J71" s="8"/>
     </row>
-    <row r="72" spans="10:10">
+    <row r="72" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J72" s="8"/>
     </row>
-    <row r="73" spans="10:10">
+    <row r="73" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J73" s="8"/>
     </row>
-    <row r="74" spans="10:10">
+    <row r="74" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J74" s="8"/>
     </row>
-    <row r="75" spans="10:10">
+    <row r="75" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J75" s="8"/>
     </row>
-    <row r="76" spans="10:10">
+    <row r="76" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J76" s="8"/>
     </row>
-    <row r="77" spans="10:10">
+    <row r="77" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J77" s="8"/>
     </row>
-    <row r="78" spans="10:10">
+    <row r="78" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J78" s="8"/>
     </row>
-    <row r="79" spans="10:10">
+    <row r="79" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J79" s="8"/>
     </row>
-    <row r="80" spans="10:10">
+    <row r="80" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J80" s="8"/>
     </row>
-    <row r="81" spans="10:10">
+    <row r="81" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J81" s="8"/>
     </row>
-    <row r="82" spans="10:10">
+    <row r="82" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J82" s="8"/>
     </row>
-    <row r="83" spans="10:10">
+    <row r="83" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J83" s="8"/>
     </row>
-    <row r="84" spans="10:10">
+    <row r="84" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J84" s="8"/>
     </row>
-    <row r="85" spans="10:10">
+    <row r="85" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J85" s="8"/>
     </row>
-    <row r="86" spans="10:10">
+    <row r="86" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J86" s="8"/>
     </row>
-    <row r="87" spans="10:10">
+    <row r="87" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J87" s="8"/>
     </row>
-    <row r="88" spans="10:10">
+    <row r="88" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J88" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="48">
-    <mergeCell ref="R16:T16"/>
-    <mergeCell ref="R17:T17"/>
-    <mergeCell ref="R12:AB13"/>
-    <mergeCell ref="R14:T14"/>
-    <mergeCell ref="R15:T15"/>
+    <mergeCell ref="A18:C18"/>
+    <mergeCell ref="D15:I15"/>
+    <mergeCell ref="A15:C15"/>
+    <mergeCell ref="H16:H17"/>
+    <mergeCell ref="I16:I17"/>
+    <mergeCell ref="M16:M17"/>
+    <mergeCell ref="J15:M15"/>
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="D16:F16"/>
+    <mergeCell ref="A16:C17"/>
+    <mergeCell ref="U27:V27"/>
+    <mergeCell ref="R18:T18"/>
+    <mergeCell ref="R23:T23"/>
+    <mergeCell ref="U28:X28"/>
+    <mergeCell ref="U14:V14"/>
+    <mergeCell ref="U17:V17"/>
+    <mergeCell ref="W14:Y14"/>
+    <mergeCell ref="W17:Y17"/>
+    <mergeCell ref="U24:V24"/>
+    <mergeCell ref="W24:Y24"/>
+    <mergeCell ref="Z24:AB24"/>
+    <mergeCell ref="U25:AB25"/>
+    <mergeCell ref="A24:D24"/>
+    <mergeCell ref="R24:T24"/>
+    <mergeCell ref="R25:T25"/>
     <mergeCell ref="N16:N17"/>
     <mergeCell ref="O16:O17"/>
     <mergeCell ref="A12:O13"/>
@@ -5933,42 +6016,22 @@
     <mergeCell ref="D14:I14"/>
     <mergeCell ref="A14:C14"/>
     <mergeCell ref="G16:G17"/>
-    <mergeCell ref="U24:V24"/>
-    <mergeCell ref="W24:Y24"/>
-    <mergeCell ref="Z24:AB24"/>
-    <mergeCell ref="U25:AB25"/>
-    <mergeCell ref="A24:D24"/>
-    <mergeCell ref="R24:T24"/>
-    <mergeCell ref="R25:T25"/>
-    <mergeCell ref="U27:V27"/>
-    <mergeCell ref="R18:T18"/>
-    <mergeCell ref="R23:T23"/>
-    <mergeCell ref="U28:X28"/>
-    <mergeCell ref="U14:V14"/>
-    <mergeCell ref="U17:V17"/>
-    <mergeCell ref="W14:Y14"/>
-    <mergeCell ref="W17:Y17"/>
-    <mergeCell ref="Z14:AB14"/>
-    <mergeCell ref="Z17:AB17"/>
     <mergeCell ref="J14:M14"/>
     <mergeCell ref="J16:J17"/>
     <mergeCell ref="K16:K17"/>
     <mergeCell ref="L16:L17"/>
-    <mergeCell ref="M16:M17"/>
-    <mergeCell ref="J15:M15"/>
-    <mergeCell ref="A2:C2"/>
-    <mergeCell ref="D16:F16"/>
-    <mergeCell ref="A16:C17"/>
-    <mergeCell ref="A18:C18"/>
-    <mergeCell ref="D15:I15"/>
-    <mergeCell ref="A15:C15"/>
-    <mergeCell ref="H16:H17"/>
-    <mergeCell ref="I16:I17"/>
+    <mergeCell ref="R16:T16"/>
+    <mergeCell ref="R17:T17"/>
+    <mergeCell ref="R12:AB13"/>
+    <mergeCell ref="R14:T14"/>
+    <mergeCell ref="R15:T15"/>
+    <mergeCell ref="Z14:AB14"/>
+    <mergeCell ref="Z17:AB17"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
-  <drawing r:id="rId1"/>
-  <legacyDrawing r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+  <legacyDrawing r:id="rId3"/>
 </worksheet>
 </file>